--- a/data/trans_dic/P1424_2016_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1424_2016_2023-Dificultad-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.1146717953097348</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1487197491919339</v>
+        <v>0.148719749191934</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.07499041262853623</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.021569763007477</v>
+        <v>0.02198884219584919</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07435057060225723</v>
+        <v>0.07327651343309523</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09681495943477848</v>
+        <v>0.09798943444807885</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1247135957433683</v>
+        <v>0.1263174083120011</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06466194779385237</v>
+        <v>0.06431036060769066</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1092941936498969</v>
+        <v>0.1086777488475931</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04212499791489318</v>
+        <v>0.04255556964128674</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1304078678508709</v>
+        <v>0.1288822228046227</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1340111115615113</v>
+        <v>0.1354471782011741</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1746757809560461</v>
+        <v>0.1741177234669692</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08677557891342175</v>
+        <v>0.08748261102125282</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1454578588605231</v>
+        <v>0.1453446136853419</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.01748456872333336</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03243322075569088</v>
+        <v>0.03243322075569087</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.04017779609177322</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009929824556840139</v>
+        <v>0.01007202278213704</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02262662545081987</v>
+        <v>0.0222604482726108</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0288935490428159</v>
+        <v>0.0285064167276223</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0755150369702253</v>
+        <v>0.07683715241865738</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02237681707229539</v>
+        <v>0.02224922803771102</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05393902303942686</v>
+        <v>0.0545938778394243</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0266693642901579</v>
+        <v>0.02789193565803683</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04642212017450924</v>
+        <v>0.04641186329273863</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05274586801990829</v>
+        <v>0.05416430942760949</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.105278654081766</v>
+        <v>0.1053836524921934</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03762638207030722</v>
+        <v>0.03818266286729893</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07321502427532038</v>
+        <v>0.07425366154505915</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.03653001857893821</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07656715184735376</v>
+        <v>0.07656715184735374</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02327692494023749</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005535654152588095</v>
+        <v>0.005005831976599398</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02268104832681427</v>
+        <v>0.02333943064454616</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02358221558584192</v>
+        <v>0.02467565789506758</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06227629878375535</v>
+        <v>0.06263418167618909</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01561480465670833</v>
+        <v>0.0159307818433992</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04643767844971732</v>
+        <v>0.04621261126153667</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02207446309460376</v>
+        <v>0.02115423719341964</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04686953719382068</v>
+        <v>0.046925733801635</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05163006761085651</v>
+        <v>0.05463120426216345</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09239695395965067</v>
+        <v>0.09148678602659778</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03155839801394884</v>
+        <v>0.03214087268552531</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06534027120591886</v>
+        <v>0.06534772213097187</v>
       </c>
     </row>
     <row r="13">
@@ -864,13 +864,13 @@
         <v>0.03512086410642974</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.07204623327974381</v>
+        <v>0.0720462332797438</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02147832632928903</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.0513445277308814</v>
+        <v>0.05134452773088139</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001805588130792368</v>
+        <v>0.001794840458900079</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02140218929208455</v>
+        <v>0.02224090788864189</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02250073943771262</v>
+        <v>0.02018217300999493</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0587728564118043</v>
+        <v>0.059536455623586</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01315988279579511</v>
+        <v>0.01333161456534081</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04252570299689042</v>
+        <v>0.04353498322141419</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02442386975519379</v>
+        <v>0.02318629632033015</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04846612677597772</v>
+        <v>0.04707343569083075</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05548758608607078</v>
+        <v>0.05437994676340373</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08835136625438077</v>
+        <v>0.08760812501455083</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03276074991424183</v>
+        <v>0.03411400720106799</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06352546269434896</v>
+        <v>0.06216176419653946</v>
       </c>
     </row>
     <row r="16">
@@ -946,13 +946,13 @@
         <v>0.06528295953235462</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09173939771825813</v>
+        <v>0.09173939771825815</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.04263019674898538</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.06762182551630189</v>
+        <v>0.0676218255163019</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01433346466566204</v>
+        <v>0.01453251111864971</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03547845950909388</v>
+        <v>0.03560541326898248</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05807108892947582</v>
+        <v>0.05696956864847428</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08340815225466476</v>
+        <v>0.08348841887227303</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03833276148525579</v>
+        <v>0.03770402449898794</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06271598810690622</v>
+        <v>0.06246488513818766</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02407772069609668</v>
+        <v>0.02458802727857475</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04944999813576172</v>
+        <v>0.04937801796485291</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07472305837815919</v>
+        <v>0.07472315560149954</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09975867772606468</v>
+        <v>0.09991291090775445</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04818156508699226</v>
+        <v>0.04781323028527663</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07333317058426521</v>
+        <v>0.07381018474055391</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>24331</v>
+        <v>24803</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36861</v>
+        <v>36328</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>121944</v>
+        <v>123424</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>77769</v>
+        <v>78769</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>154384</v>
+        <v>153545</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>122338</v>
+        <v>121648</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>47517</v>
+        <v>48003</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>64652</v>
+        <v>63896</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>168795</v>
+        <v>170604</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>108924</v>
+        <v>108576</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>207182</v>
+        <v>208870</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>162818</v>
+        <v>162691</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9024</v>
+        <v>9154</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21725</v>
+        <v>21373</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>29081</v>
+        <v>28691</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>84151</v>
+        <v>85624</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>42858</v>
+        <v>42614</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>111896</v>
+        <v>113255</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24238</v>
+        <v>25349</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>44572</v>
+        <v>44562</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>53087</v>
+        <v>54515</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>117318</v>
+        <v>117435</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>72066</v>
+        <v>73131</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>151884</v>
+        <v>154039</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4560</v>
+        <v>4124</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>23710</v>
+        <v>24398</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>18183</v>
+        <v>19026</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>65160</v>
+        <v>65534</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>24903</v>
+        <v>25407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>97132</v>
+        <v>96661</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18184</v>
+        <v>17426</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>48995</v>
+        <v>49054</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>39810</v>
+        <v>42124</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>96675</v>
+        <v>95723</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>50330</v>
+        <v>51259</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>136669</v>
+        <v>136685</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>20887</v>
+        <v>21706</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11019</v>
+        <v>9883</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>53381</v>
+        <v>54074</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13112</v>
+        <v>13284</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>80126</v>
+        <v>82028</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12376</v>
+        <v>11749</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>47299</v>
+        <v>45940</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>27172</v>
+        <v>26630</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>80245</v>
+        <v>79570</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>32643</v>
+        <v>33991</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>119693</v>
+        <v>117124</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>48265</v>
+        <v>48935</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>123365</v>
+        <v>123807</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>204805</v>
+        <v>200920</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>307984</v>
+        <v>308280</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>264269</v>
+        <v>259934</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>449653</v>
+        <v>447853</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>81076</v>
+        <v>82795</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>171947</v>
+        <v>171697</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>263533</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>368358</v>
+        <v>368927</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>332167</v>
+        <v>329628</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>525775</v>
+        <v>529195</v>
       </c>
     </row>
     <row r="24">
